--- a/datasheets/mj8x8 CAN comm parameters.xlsx
+++ b/datasheets/mj8x8 CAN comm parameters.xlsx
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="453">
   <si>
     <t>mj818</t>
   </si>
@@ -712,9 +712,6 @@
     <t>power save dumb light</t>
   </si>
   <si>
-    <t>battery</t>
-  </si>
-  <si>
     <t>hardcoded PWM when CAN absent, no brake switching</t>
   </si>
   <si>
@@ -891,24 +888,6 @@
   </si>
   <si>
     <t>main controller</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>dynamo1</t>
-  </si>
-  <si>
-    <t>dynamo2</t>
-  </si>
-  <si>
-    <t>solar cell</t>
-  </si>
-  <si>
-    <t>cadence</t>
-  </si>
-  <si>
-    <t>microwave radar?</t>
   </si>
   <si>
     <t>LED identificator</t>
@@ -2065,6 +2044,27 @@
       <t xml:space="preserve"> 
 for e.g. MJ818 this is  0x09 hex and 9 in base 10 (see device_t)</t>
     </r>
+  </si>
+  <si>
+    <t>mj514</t>
+  </si>
+  <si>
+    <t>mj838</t>
+  </si>
+  <si>
+    <t>mj515</t>
+  </si>
+  <si>
+    <t>Rohloff e14 shifting unit</t>
+  </si>
+  <si>
+    <t>Rohloff grip - absolute encoder</t>
+  </si>
+  <si>
+    <t>dynamo sensor</t>
+  </si>
+  <si>
+    <t>dashboard w. buttons</t>
   </si>
 </sst>
 </file>
@@ -4318,10 +4318,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -4332,16 +4332,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,16 +4349,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4366,67 +4366,67 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4469,30 +4469,30 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>4</v>
@@ -4501,10 +4501,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>16</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -4527,18 +4527,18 @@
         <v>5</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -4553,13 +4553,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4579,13 +4579,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4593,56 +4593,56 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -4651,16 +4651,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
@@ -4668,139 +4668,139 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -4812,10 +4812,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>16</v>
@@ -4848,7 +4848,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,7 +4863,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B1" s="92">
         <v>15</v>
@@ -4901,97 +4901,97 @@
     </row>
     <row r="2" spans="1:18" s="91" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C2" s="99" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D2" s="180" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E2" s="180"/>
       <c r="F2" s="180" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G2" s="180"/>
       <c r="H2" s="188" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I2" s="188"/>
       <c r="J2" s="184" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K2" s="184"/>
       <c r="L2" s="100" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B3" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="108" t="s">
-        <v>93</v>
-      </c>
       <c r="D3" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="182"/>
       <c r="F3" s="181" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="182"/>
       <c r="H3" s="185" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="186"/>
       <c r="J3" s="185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K3" s="186"/>
       <c r="L3" s="97" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="19" customFormat="1" ht="84.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="158" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="183" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="183"/>
       <c r="F4" s="179" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="179"/>
       <c r="H4" s="189" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" s="189"/>
       <c r="J4" s="187" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" s="187"/>
       <c r="L4" s="98" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B5" s="95">
         <v>7</v>
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="154" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="N5" s="154"/>
       <c r="O5" s="154"/>
@@ -5037,7 +5037,7 @@
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="173" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="174"/>
@@ -5047,7 +5047,7 @@
       <c r="H6" s="174"/>
       <c r="I6" s="174"/>
       <c r="J6" s="175" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K6" s="176"/>
       <c r="L6" s="176"/>
@@ -5075,13 +5075,13 @@
     </row>
     <row r="8" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B8" s="152">
         <v>1</v>
       </c>
       <c r="C8" s="177" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D8" s="177"/>
       <c r="E8" s="177"/>
@@ -5099,7 +5099,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="167" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D9" s="167"/>
       <c r="E9" s="167"/>
@@ -5117,7 +5117,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="178" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D10" s="178"/>
       <c r="E10" s="178"/>
@@ -5171,27 +5171,27 @@
     </row>
     <row r="15" spans="1:18" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="159" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C15" s="160" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D15" s="172" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E15" s="172"/>
       <c r="F15" s="160" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G15" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H15" s="169"/>
       <c r="I15" s="170" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J15" s="171"/>
       <c r="L15" s="159"/>
@@ -5201,24 +5201,24 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D16" s="166" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="166"/>
       <c r="F16" s="16" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G16" s="166" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H16" s="166"/>
       <c r="I16" s="166" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J16" s="166"/>
       <c r="L16" s="16"/>
@@ -5228,24 +5228,24 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D17" s="166" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="E17" s="166"/>
       <c r="F17" s="16" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G17" s="166" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H17" s="166"/>
       <c r="I17" s="166" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="J17" s="166"/>
       <c r="L17" s="16"/>
@@ -5255,24 +5255,24 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D18" s="166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="166"/>
       <c r="F18" s="16" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G18" s="166" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H18" s="166"/>
       <c r="I18" s="166" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J18" s="166"/>
       <c r="L18" s="16"/>
@@ -5282,26 +5282,29 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D19" s="166" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E19" s="166"/>
       <c r="F19" s="16" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G19" s="166" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H19" s="166"/>
       <c r="I19" s="166" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="J19" s="166"/>
+      <c r="K19" t="s">
+        <v>452</v>
+      </c>
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5309,26 +5312,29 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D20" s="166" t="s">
-        <v>122</v>
+        <v>447</v>
       </c>
       <c r="E20" s="166"/>
       <c r="F20" s="16" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G20" s="166" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H20" s="166"/>
       <c r="I20" s="166" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J20" s="166"/>
+      <c r="K20" t="s">
+        <v>451</v>
+      </c>
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -5336,24 +5342,24 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D21" s="166" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="E21" s="166"/>
       <c r="F21" s="16" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G21" s="166" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H21" s="166"/>
       <c r="I21" s="166" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="J21" s="166"/>
       <c r="L21" s="16"/>
@@ -5363,24 +5369,24 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D22" s="166" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="E22" s="166"/>
       <c r="F22" s="16" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G22" s="166" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H22" s="166"/>
       <c r="I22" s="166" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J22" s="166"/>
       <c r="L22" s="16"/>
@@ -5390,24 +5396,24 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D23" s="166" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="E23" s="166"/>
       <c r="F23" s="16" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G23" s="166" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H23" s="166"/>
       <c r="I23" s="166" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="J23" s="166"/>
       <c r="L23" s="16"/>
@@ -5417,26 +5423,29 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D24" s="166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="166"/>
       <c r="F24" s="16" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G24" s="166" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H24" s="166"/>
       <c r="I24" s="166" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J24" s="166"/>
+      <c r="K24" t="s">
+        <v>307</v>
+      </c>
       <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -5444,26 +5453,29 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D25" s="166" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="166"/>
       <c r="F25" s="16" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G25" s="166" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H25" s="166"/>
       <c r="I25" s="166" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J25" s="166"/>
+      <c r="K25" t="s">
+        <v>314</v>
+      </c>
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5471,24 +5483,24 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D26" s="166" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E26" s="166"/>
       <c r="F26" s="16" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G26" s="166" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H26" s="166"/>
       <c r="I26" s="166" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J26" s="166"/>
       <c r="L26" s="16"/>
@@ -5498,24 +5510,24 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D27" s="166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="166"/>
       <c r="F27" s="16" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G27" s="166" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H27" s="166"/>
       <c r="I27" s="166" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J27" s="166"/>
       <c r="L27" s="16"/>
@@ -5525,26 +5537,29 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D28" s="166" t="s">
-        <v>125</v>
+        <v>446</v>
       </c>
       <c r="E28" s="166"/>
       <c r="F28" s="16" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G28" s="166" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H28" s="166"/>
       <c r="I28" s="166" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J28" s="166"/>
+      <c r="K28" t="s">
+        <v>449</v>
+      </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5552,26 +5567,29 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D29" s="166" t="s">
-        <v>126</v>
+        <v>448</v>
       </c>
       <c r="E29" s="166"/>
       <c r="F29" s="16" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G29" s="166" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H29" s="166"/>
       <c r="I29" s="166" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="J29" s="166"/>
+      <c r="K29" t="s">
+        <v>450</v>
+      </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -5579,24 +5597,24 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D30" s="166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" s="166"/>
       <c r="F30" s="16" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G30" s="166" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H30" s="166"/>
       <c r="I30" s="166" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J30" s="166"/>
     </row>
@@ -5605,24 +5623,24 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D31" s="166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="166"/>
       <c r="F31" s="16" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G31" s="166" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H31" s="166"/>
       <c r="I31" s="166" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J31" s="166"/>
     </row>
@@ -5732,96 +5750,96 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="166" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
       <c r="E1" s="166"/>
       <c r="F1" s="166" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G1" s="166"/>
       <c r="H1" s="166"/>
       <c r="I1" s="166"/>
       <c r="J1" s="153" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,25 +5875,25 @@
         <v>0</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L4" s="201" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="195" t="s">
+        <v>262</v>
+      </c>
+      <c r="O4" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="190" t="s">
+        <v>276</v>
+      </c>
+      <c r="S4" s="166" t="s">
         <v>270</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="N4" s="195" t="s">
-        <v>269</v>
-      </c>
-      <c r="O4" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" s="190" t="s">
-        <v>283</v>
-      </c>
-      <c r="S4" s="166" t="s">
-        <v>277</v>
       </c>
       <c r="T4" s="166"/>
       <c r="U4" s="166"/>
@@ -5913,15 +5931,15 @@
         <v>1</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L5" s="202"/>
       <c r="M5" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N5" s="196"/>
       <c r="O5" s="115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P5" s="191"/>
       <c r="S5" s="166"/>
@@ -5961,15 +5979,15 @@
         <v>2</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L6" s="202"/>
       <c r="M6" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N6" s="196"/>
       <c r="O6" s="115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P6" s="191"/>
       <c r="S6" s="166"/>
@@ -6009,15 +6027,15 @@
         <v>3</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L7" s="202"/>
       <c r="M7" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N7" s="196"/>
       <c r="O7" s="115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P7" s="191"/>
       <c r="S7" s="166"/>
@@ -6057,15 +6075,15 @@
         <v>4</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L8" s="202"/>
       <c r="M8" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N8" s="196"/>
       <c r="O8" s="115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P8" s="191"/>
       <c r="S8" s="166"/>
@@ -6105,15 +6123,15 @@
         <v>5</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L9" s="202"/>
       <c r="M9" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N9" s="196"/>
       <c r="O9" s="115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P9" s="191"/>
       <c r="S9" s="166"/>
@@ -6153,15 +6171,15 @@
         <v>6</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L10" s="202"/>
       <c r="M10" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N10" s="196"/>
       <c r="O10" s="115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" s="191"/>
       <c r="S10" s="166"/>
@@ -6201,15 +6219,15 @@
         <v>7</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L11" s="202"/>
       <c r="M11" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N11" s="196"/>
       <c r="O11" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" s="191"/>
       <c r="S11" s="166"/>
@@ -6249,15 +6267,15 @@
         <v>8</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L12" s="202"/>
       <c r="M12" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N12" s="196"/>
       <c r="O12" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P12" s="191"/>
       <c r="S12" s="166"/>
@@ -6297,15 +6315,15 @@
         <v>9</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L13" s="202"/>
       <c r="M13" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N13" s="196"/>
       <c r="O13" s="115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P13" s="191"/>
       <c r="S13" s="166"/>
@@ -6345,15 +6363,15 @@
         <v>A</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L14" s="202"/>
       <c r="M14" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N14" s="196"/>
       <c r="O14" s="115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P14" s="191"/>
       <c r="S14" s="166"/>
@@ -6393,15 +6411,15 @@
         <v>B</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L15" s="202"/>
       <c r="M15" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N15" s="196"/>
       <c r="O15" s="115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P15" s="191"/>
       <c r="S15" s="166"/>
@@ -6441,15 +6459,15 @@
         <v>C</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L16" s="202"/>
       <c r="M16" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N16" s="196"/>
       <c r="O16" s="115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P16" s="191"/>
       <c r="S16" s="166"/>
@@ -6489,15 +6507,15 @@
         <v>D</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L17" s="202"/>
       <c r="M17" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N17" s="196"/>
       <c r="O17" s="115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="191"/>
       <c r="S17" s="166"/>
@@ -6537,15 +6555,15 @@
         <v>E</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L18" s="202"/>
       <c r="M18" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N18" s="196"/>
       <c r="O18" s="115" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="P18" s="191"/>
       <c r="S18" s="166"/>
@@ -6585,15 +6603,15 @@
         <v>F</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L19" s="203"/>
       <c r="M19" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N19" s="197"/>
       <c r="O19" s="116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P19" s="192"/>
       <c r="S19" s="166"/>
@@ -6633,31 +6651,31 @@
         <v>10</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N20" s="195" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O20" s="198" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P20" s="190" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="190" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="R20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="S20" s="167" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="T20" s="193"/>
       <c r="U20" s="193"/>
@@ -6695,20 +6713,20 @@
         <v>11</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N21" s="196"/>
       <c r="O21" s="199"/>
       <c r="P21" s="191"/>
       <c r="Q21" s="191"/>
       <c r="R21" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="S21" s="193"/>
       <c r="T21" s="193"/>
@@ -6747,20 +6765,20 @@
         <v>12</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N22" s="196"/>
       <c r="O22" s="199"/>
       <c r="P22" s="191"/>
       <c r="Q22" s="191"/>
       <c r="R22" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="S22" s="193"/>
       <c r="T22" s="193"/>
@@ -6799,20 +6817,20 @@
         <v>13</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N23" s="196"/>
       <c r="O23" s="199"/>
       <c r="P23" s="191"/>
       <c r="Q23" s="191"/>
       <c r="R23" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="S23" s="193"/>
       <c r="T23" s="193"/>
@@ -6851,20 +6869,20 @@
         <v>14</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N24" s="196"/>
       <c r="O24" s="199"/>
       <c r="P24" s="191"/>
       <c r="Q24" s="191"/>
       <c r="R24" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="S24" s="193"/>
       <c r="T24" s="193"/>
@@ -6903,20 +6921,20 @@
         <v>15</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N25" s="196"/>
       <c r="O25" s="199"/>
       <c r="P25" s="191"/>
       <c r="Q25" s="191"/>
       <c r="R25" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="S25" s="193"/>
       <c r="T25" s="193"/>
@@ -6955,20 +6973,20 @@
         <v>16</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N26" s="196"/>
       <c r="O26" s="199"/>
       <c r="P26" s="191"/>
       <c r="Q26" s="191"/>
       <c r="R26" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="S26" s="193"/>
       <c r="T26" s="193"/>
@@ -7007,20 +7025,20 @@
         <v>17</v>
       </c>
       <c r="K27" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L27" s="43" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N27" s="196"/>
       <c r="O27" s="200"/>
       <c r="P27" s="191"/>
       <c r="Q27" s="192"/>
       <c r="R27" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="S27" s="193"/>
       <c r="T27" s="193"/>
@@ -7059,24 +7077,24 @@
         <v>18</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N28" s="196"/>
       <c r="O28" s="208" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P28" s="191"/>
       <c r="Q28" s="190" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="S28" s="193"/>
       <c r="T28" s="193"/>
@@ -7115,20 +7133,20 @@
         <v>19</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N29" s="196"/>
       <c r="O29" s="209"/>
       <c r="P29" s="191"/>
       <c r="Q29" s="191"/>
       <c r="R29" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="S29" s="193"/>
       <c r="T29" s="193"/>
@@ -7167,20 +7185,20 @@
         <v>1A</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N30" s="196"/>
       <c r="O30" s="209"/>
       <c r="P30" s="191"/>
       <c r="Q30" s="191"/>
       <c r="R30" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="S30" s="193"/>
       <c r="T30" s="193"/>
@@ -7219,20 +7237,20 @@
         <v>1B</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N31" s="196"/>
       <c r="O31" s="209"/>
       <c r="P31" s="191"/>
       <c r="Q31" s="191"/>
       <c r="R31" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="S31" s="193"/>
       <c r="T31" s="193"/>
@@ -7271,20 +7289,20 @@
         <v>1C</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M32" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N32" s="196"/>
       <c r="O32" s="209"/>
       <c r="P32" s="191"/>
       <c r="Q32" s="191"/>
       <c r="R32" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="S32" s="193"/>
       <c r="T32" s="193"/>
@@ -7323,20 +7341,20 @@
         <v>1D</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M33" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N33" s="196"/>
       <c r="O33" s="209"/>
       <c r="P33" s="191"/>
       <c r="Q33" s="191"/>
       <c r="R33" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="S33" s="193"/>
       <c r="T33" s="193"/>
@@ -7375,20 +7393,20 @@
         <v>1E</v>
       </c>
       <c r="K34" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="M34" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N34" s="196"/>
       <c r="O34" s="209"/>
       <c r="P34" s="191"/>
       <c r="Q34" s="191"/>
       <c r="R34" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="S34" s="193"/>
       <c r="T34" s="193"/>
@@ -7427,20 +7445,20 @@
         <v>1F</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M35" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N35" s="197"/>
       <c r="O35" s="210"/>
       <c r="P35" s="192"/>
       <c r="Q35" s="191"/>
       <c r="R35" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="S35" s="193"/>
       <c r="T35" s="193"/>
@@ -7479,22 +7497,22 @@
         <v>20</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L36" s="77" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N36" s="118" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="O36" s="120"/>
       <c r="P36" s="124"/>
       <c r="Q36" s="97"/>
       <c r="S36" s="167" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="T36" s="193"/>
       <c r="U36" s="193"/>
@@ -7532,16 +7550,16 @@
         <v>21</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M37" s="39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N37" s="125" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O37" s="120"/>
       <c r="P37" s="122"/>
@@ -7583,13 +7601,13 @@
         <v>22</v>
       </c>
       <c r="K38" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L38" s="79" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N38" s="119"/>
       <c r="O38" s="120"/>
@@ -7632,13 +7650,13 @@
         <v>23</v>
       </c>
       <c r="K39" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M39" s="39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N39" s="119"/>
       <c r="O39" s="120"/>
@@ -7681,13 +7699,13 @@
         <v>24</v>
       </c>
       <c r="K40" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N40" s="119"/>
       <c r="O40" s="120"/>
@@ -7730,13 +7748,13 @@
         <v>25</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N41" s="119"/>
       <c r="O41" s="120"/>
@@ -7779,13 +7797,13 @@
         <v>26</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N42" s="119"/>
       <c r="O42" s="120"/>
@@ -7828,13 +7846,13 @@
         <v>27</v>
       </c>
       <c r="K43" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L43" s="80" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N43" s="119"/>
       <c r="O43" s="120"/>
@@ -7877,18 +7895,18 @@
         <v>28</v>
       </c>
       <c r="K44" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L44" s="79"/>
       <c r="M44" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N44" s="119"/>
       <c r="O44" s="120"/>
       <c r="P44" s="122"/>
       <c r="Q44" s="97"/>
       <c r="R44" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="S44" s="193"/>
       <c r="T44" s="193"/>
@@ -7927,18 +7945,18 @@
         <v>29</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L45" s="79"/>
       <c r="M45" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N45" s="119"/>
       <c r="O45" s="120"/>
       <c r="P45" s="122"/>
       <c r="Q45" s="97"/>
       <c r="R45" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="S45" s="193"/>
       <c r="T45" s="193"/>
@@ -7977,18 +7995,18 @@
         <v>2A</v>
       </c>
       <c r="K46" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L46" s="79"/>
       <c r="M46" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N46" s="119"/>
       <c r="O46" s="120"/>
       <c r="P46" s="122"/>
       <c r="Q46" s="97"/>
       <c r="R46" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="S46" s="193"/>
       <c r="T46" s="193"/>
@@ -8027,18 +8045,18 @@
         <v>2B</v>
       </c>
       <c r="K47" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L47" s="79"/>
       <c r="M47" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N47" s="119"/>
       <c r="O47" s="120"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="97"/>
       <c r="R47" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="S47" s="193"/>
       <c r="T47" s="193"/>
@@ -8077,18 +8095,18 @@
         <v>2C</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L48" s="79"/>
       <c r="M48" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N48" s="119"/>
       <c r="O48" s="120"/>
       <c r="P48" s="122"/>
       <c r="Q48" s="97"/>
       <c r="R48" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="S48" s="193"/>
       <c r="T48" s="193"/>
@@ -8127,18 +8145,18 @@
         <v>2D</v>
       </c>
       <c r="K49" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L49" s="79"/>
       <c r="M49" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N49" s="119"/>
       <c r="O49" s="120"/>
       <c r="P49" s="122"/>
       <c r="Q49" s="97"/>
       <c r="R49" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="S49" s="193"/>
       <c r="T49" s="193"/>
@@ -8177,18 +8195,18 @@
         <v>2E</v>
       </c>
       <c r="K50" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L50" s="79"/>
       <c r="M50" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N50" s="119"/>
       <c r="O50" s="120"/>
       <c r="P50" s="122"/>
       <c r="Q50" s="97"/>
       <c r="R50" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="S50" s="193"/>
       <c r="T50" s="193"/>
@@ -8227,18 +8245,18 @@
         <v>2F</v>
       </c>
       <c r="K51" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L51" s="80"/>
       <c r="M51" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N51" s="121"/>
       <c r="O51" s="120"/>
       <c r="P51" s="123"/>
       <c r="Q51" s="97"/>
       <c r="R51" s="117" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="S51" s="193"/>
       <c r="T51" s="193"/>
@@ -8277,10 +8295,10 @@
         <v>30</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M52" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N52"/>
       <c r="O52" s="97"/>
@@ -8319,10 +8337,10 @@
         <v>31</v>
       </c>
       <c r="K53" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N53"/>
       <c r="O53" s="97"/>
@@ -8361,10 +8379,10 @@
         <v>32</v>
       </c>
       <c r="K54" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M54" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N54"/>
       <c r="O54" s="97"/>
@@ -8403,10 +8421,10 @@
         <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M55" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N55"/>
       <c r="O55" s="97"/>
@@ -8445,10 +8463,10 @@
         <v>34</v>
       </c>
       <c r="K56" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M56" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N56"/>
       <c r="O56" s="105"/>
@@ -8487,10 +8505,10 @@
         <v>35</v>
       </c>
       <c r="K57" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M57" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N57"/>
       <c r="O57" s="105"/>
@@ -8529,10 +8547,10 @@
         <v>36</v>
       </c>
       <c r="K58" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M58" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N58"/>
       <c r="O58" s="105"/>
@@ -8571,10 +8589,10 @@
         <v>37</v>
       </c>
       <c r="K59" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N59"/>
       <c r="O59" s="105"/>
@@ -8613,10 +8631,10 @@
         <v>38</v>
       </c>
       <c r="K60" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N60"/>
     </row>
@@ -8653,10 +8671,10 @@
         <v>39</v>
       </c>
       <c r="K61" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M61" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N61"/>
     </row>
@@ -8693,10 +8711,10 @@
         <v>3A</v>
       </c>
       <c r="K62" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M62" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N62"/>
     </row>
@@ -8733,10 +8751,10 @@
         <v>3B</v>
       </c>
       <c r="K63" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M63" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N63"/>
     </row>
@@ -8773,10 +8791,10 @@
         <v>3C</v>
       </c>
       <c r="K64" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M64" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N64"/>
     </row>
@@ -8813,10 +8831,10 @@
         <v>3D</v>
       </c>
       <c r="K65" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M65" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N65"/>
     </row>
@@ -8853,10 +8871,10 @@
         <v>3E</v>
       </c>
       <c r="K66" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M66" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N66"/>
     </row>
@@ -8893,10 +8911,10 @@
         <v>3F</v>
       </c>
       <c r="K67" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M67" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N67"/>
     </row>
@@ -8933,18 +8951,18 @@
         <v>40</v>
       </c>
       <c r="K68" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L68" s="48"/>
       <c r="M68" s="49"/>
       <c r="N68" s="195" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O68" s="195" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P68" s="190" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8980,7 +8998,7 @@
         <v>41</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L69" s="51"/>
       <c r="M69" s="52"/>
@@ -9021,7 +9039,7 @@
         <v>42</v>
       </c>
       <c r="K70" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L70" s="51"/>
       <c r="M70" s="52"/>
@@ -9062,7 +9080,7 @@
         <v>43</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L71" s="56"/>
       <c r="M71" s="57"/>
@@ -9103,13 +9121,13 @@
         <v>44</v>
       </c>
       <c r="K72" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L72" s="48"/>
       <c r="M72" s="49"/>
       <c r="N72" s="196"/>
       <c r="O72" s="195" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P72" s="191"/>
     </row>
@@ -9146,7 +9164,7 @@
         <v>45</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L73" s="51"/>
       <c r="M73" s="52"/>
@@ -9187,7 +9205,7 @@
         <v>46</v>
       </c>
       <c r="K74" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L74" s="51"/>
       <c r="M74" s="52"/>
@@ -9228,7 +9246,7 @@
         <v>47</v>
       </c>
       <c r="K75" s="43" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L75" s="56"/>
       <c r="M75" s="57"/>
@@ -9269,21 +9287,21 @@
         <v>48</v>
       </c>
       <c r="K76" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="L76" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="M76" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="L76" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="M76" s="34" t="s">
-        <v>158</v>
       </c>
       <c r="N76" s="196"/>
       <c r="O76" s="195" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P76" s="191"/>
       <c r="U76" s="167" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="V76" s="193"/>
       <c r="W76" s="193"/>
@@ -9321,13 +9339,13 @@
         <v>49</v>
       </c>
       <c r="K77" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L77" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="M77" s="39" t="s">
         <v>151</v>
-      </c>
-      <c r="L77" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="M77" s="39" t="s">
-        <v>158</v>
       </c>
       <c r="N77" s="196"/>
       <c r="O77" s="196"/>
@@ -9369,13 +9387,13 @@
         <v>4A</v>
       </c>
       <c r="K78" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L78" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="M78" s="39" t="s">
         <v>151</v>
-      </c>
-      <c r="L78" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="M78" s="39" t="s">
-        <v>158</v>
       </c>
       <c r="N78" s="196"/>
       <c r="O78" s="196"/>
@@ -9417,13 +9435,13 @@
         <v>4B</v>
       </c>
       <c r="K79" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="L79" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="M79" s="44" t="s">
         <v>151</v>
-      </c>
-      <c r="L79" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="M79" s="44" t="s">
-        <v>158</v>
       </c>
       <c r="N79" s="196"/>
       <c r="O79" s="197"/>
@@ -9465,13 +9483,13 @@
         <v>4C</v>
       </c>
       <c r="K80" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L80" s="48"/>
       <c r="M80" s="49"/>
       <c r="N80" s="196"/>
       <c r="O80" s="195" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P80" s="191"/>
     </row>
@@ -9508,7 +9526,7 @@
         <v>4D</v>
       </c>
       <c r="K81" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L81" s="51"/>
       <c r="M81" s="52"/>
@@ -9549,7 +9567,7 @@
         <v>4E</v>
       </c>
       <c r="K82" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L82" s="51"/>
       <c r="M82" s="52"/>
@@ -9590,7 +9608,7 @@
         <v>4F</v>
       </c>
       <c r="K83" s="43" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L83" s="56"/>
       <c r="M83" s="57"/>
@@ -9631,7 +9649,7 @@
         <v>50</v>
       </c>
       <c r="K84" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N84"/>
     </row>
@@ -9668,7 +9686,7 @@
         <v>51</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N85"/>
     </row>
@@ -9705,7 +9723,7 @@
         <v>52</v>
       </c>
       <c r="K86" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N86"/>
     </row>
@@ -9742,7 +9760,7 @@
         <v>53</v>
       </c>
       <c r="K87" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N87"/>
     </row>
@@ -9779,7 +9797,7 @@
         <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N88"/>
     </row>
@@ -9816,7 +9834,7 @@
         <v>55</v>
       </c>
       <c r="K89" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N89"/>
     </row>
@@ -9853,7 +9871,7 @@
         <v>56</v>
       </c>
       <c r="K90" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N90"/>
     </row>
@@ -9890,7 +9908,7 @@
         <v>57</v>
       </c>
       <c r="K91" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N91"/>
     </row>
@@ -9927,7 +9945,7 @@
         <v>58</v>
       </c>
       <c r="K92" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N92"/>
     </row>
@@ -9964,7 +9982,7 @@
         <v>59</v>
       </c>
       <c r="K93" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N93"/>
     </row>
@@ -10001,7 +10019,7 @@
         <v>5A</v>
       </c>
       <c r="K94" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N94"/>
     </row>
@@ -10038,7 +10056,7 @@
         <v>5B</v>
       </c>
       <c r="K95" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N95"/>
     </row>
@@ -10075,7 +10093,7 @@
         <v>5C</v>
       </c>
       <c r="K96" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N96"/>
     </row>
@@ -10112,7 +10130,7 @@
         <v>5D</v>
       </c>
       <c r="K97" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N97"/>
     </row>
@@ -10149,7 +10167,7 @@
         <v>5E</v>
       </c>
       <c r="K98" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N98"/>
     </row>
@@ -10186,7 +10204,7 @@
         <v>5F</v>
       </c>
       <c r="K99" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N99"/>
     </row>
@@ -10223,7 +10241,7 @@
         <v>60</v>
       </c>
       <c r="K100" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N100"/>
     </row>
@@ -10260,7 +10278,7 @@
         <v>61</v>
       </c>
       <c r="K101" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N101"/>
     </row>
@@ -10297,7 +10315,7 @@
         <v>62</v>
       </c>
       <c r="K102" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N102"/>
     </row>
@@ -10334,7 +10352,7 @@
         <v>63</v>
       </c>
       <c r="K103" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N103"/>
     </row>
@@ -10371,7 +10389,7 @@
         <v>64</v>
       </c>
       <c r="K104" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N104"/>
     </row>
@@ -10408,7 +10426,7 @@
         <v>65</v>
       </c>
       <c r="K105" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N105"/>
     </row>
@@ -10445,7 +10463,7 @@
         <v>66</v>
       </c>
       <c r="K106" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N106"/>
     </row>
@@ -10482,7 +10500,7 @@
         <v>67</v>
       </c>
       <c r="K107" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N107"/>
     </row>
@@ -10519,7 +10537,7 @@
         <v>68</v>
       </c>
       <c r="K108" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N108"/>
     </row>
@@ -10556,7 +10574,7 @@
         <v>69</v>
       </c>
       <c r="K109" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N109"/>
     </row>
@@ -10593,7 +10611,7 @@
         <v>6A</v>
       </c>
       <c r="K110" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N110"/>
     </row>
@@ -10630,7 +10648,7 @@
         <v>6B</v>
       </c>
       <c r="K111" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N111"/>
     </row>
@@ -10667,7 +10685,7 @@
         <v>6C</v>
       </c>
       <c r="K112" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N112"/>
     </row>
@@ -10704,7 +10722,7 @@
         <v>6D</v>
       </c>
       <c r="K113" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N113"/>
     </row>
@@ -10741,7 +10759,7 @@
         <v>6E</v>
       </c>
       <c r="K114" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N114"/>
     </row>
@@ -10778,7 +10796,7 @@
         <v>6F</v>
       </c>
       <c r="K115" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N115"/>
     </row>
@@ -10815,12 +10833,12 @@
         <v>70</v>
       </c>
       <c r="K116" s="33" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L116" s="33"/>
       <c r="M116" s="34"/>
       <c r="N116" s="204" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10856,17 +10874,17 @@
         <v>71</v>
       </c>
       <c r="K117" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L117" s="38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M117" s="39" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N117" s="204"/>
       <c r="O117" s="205" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P117" s="205"/>
       <c r="Q117" s="205"/>
@@ -10905,13 +10923,13 @@
         <v>72</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L118" s="38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M118" s="39" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N118" s="204"/>
       <c r="O118" s="205"/>
@@ -10952,13 +10970,13 @@
         <v>73</v>
       </c>
       <c r="K119" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L119" s="38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M119" s="72" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="N119" s="204"/>
       <c r="O119" s="205"/>
@@ -10999,13 +11017,13 @@
         <v>74</v>
       </c>
       <c r="K120" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L120" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="M120" s="72" t="s">
         <v>205</v>
-      </c>
-      <c r="M120" s="72" t="s">
-        <v>212</v>
       </c>
       <c r="N120" s="204"/>
       <c r="O120" s="205"/>
@@ -11046,13 +11064,13 @@
         <v>75</v>
       </c>
       <c r="K121" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L121" s="38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M121" s="72" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N121" s="204"/>
       <c r="O121" s="205"/>
@@ -11093,13 +11111,13 @@
         <v>76</v>
       </c>
       <c r="K122" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L122" s="38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M122" s="72" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N122" s="204"/>
       <c r="O122" s="205"/>
@@ -11140,13 +11158,13 @@
         <v>77</v>
       </c>
       <c r="K123" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L123" s="38" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M123" s="72" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N123" s="204"/>
       <c r="O123" s="205"/>
@@ -11187,13 +11205,13 @@
         <v>78</v>
       </c>
       <c r="K124" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L124" s="43" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M124" s="76" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N124" s="204"/>
       <c r="O124" s="205"/>
@@ -11234,7 +11252,7 @@
         <v>79</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L125" s="23"/>
       <c r="M125" s="23"/>
@@ -11273,7 +11291,7 @@
         <v>7A</v>
       </c>
       <c r="K126" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L126" s="23"/>
       <c r="M126" s="23"/>
@@ -11312,7 +11330,7 @@
         <v>7B</v>
       </c>
       <c r="K127" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
@@ -11351,7 +11369,7 @@
         <v>7C</v>
       </c>
       <c r="K128" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
@@ -11390,7 +11408,7 @@
         <v>7D</v>
       </c>
       <c r="K129" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
@@ -11429,7 +11447,7 @@
         <v>7E</v>
       </c>
       <c r="K130" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
@@ -11468,7 +11486,7 @@
         <v>7F</v>
       </c>
       <c r="K131" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
@@ -11507,13 +11525,13 @@
         <v>80</v>
       </c>
       <c r="K132" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M132" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N132" s="204" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -11549,10 +11567,10 @@
         <v>81</v>
       </c>
       <c r="K133" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M133" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N133" s="204"/>
     </row>
@@ -11589,10 +11607,10 @@
         <v>82</v>
       </c>
       <c r="K134" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M134" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N134" s="204"/>
     </row>
@@ -11629,10 +11647,10 @@
         <v>83</v>
       </c>
       <c r="K135" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M135" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N135" s="204"/>
     </row>
@@ -11669,10 +11687,10 @@
         <v>84</v>
       </c>
       <c r="K136" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M136" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N136" s="204"/>
     </row>
@@ -11709,10 +11727,10 @@
         <v>85</v>
       </c>
       <c r="K137" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M137" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N137" s="204"/>
     </row>
@@ -11749,10 +11767,10 @@
         <v>86</v>
       </c>
       <c r="K138" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M138" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N138" s="204"/>
     </row>
@@ -11789,10 +11807,10 @@
         <v>87</v>
       </c>
       <c r="K139" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M139" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N139" s="204"/>
     </row>
@@ -11829,17 +11847,17 @@
         <v>88</v>
       </c>
       <c r="K140" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L140" s="33" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M140" s="34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N140" s="204"/>
       <c r="O140" s="167" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P140" s="167"/>
       <c r="Q140" s="193"/>
@@ -11878,13 +11896,13 @@
         <v>89</v>
       </c>
       <c r="K141" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M141" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N141" s="204"/>
       <c r="O141" s="193"/>
@@ -11927,7 +11945,7 @@
       <c r="K142" s="38"/>
       <c r="L142" s="38"/>
       <c r="M142" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N142" s="204"/>
       <c r="O142" s="193"/>
@@ -11970,7 +11988,7 @@
       <c r="K143" s="38"/>
       <c r="L143" s="38"/>
       <c r="M143" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N143" s="204"/>
       <c r="O143" s="193"/>
@@ -12011,13 +12029,13 @@
         <v>8C</v>
       </c>
       <c r="K144" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M144" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N144" s="204"/>
       <c r="O144" s="193"/>
@@ -12058,13 +12076,13 @@
         <v>8D</v>
       </c>
       <c r="K145" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L145" s="38" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M145" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N145" s="204"/>
       <c r="O145" s="193"/>
@@ -12105,13 +12123,13 @@
         <v>8E</v>
       </c>
       <c r="K146" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L146" s="38" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M146" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N146" s="204"/>
       <c r="O146" s="193"/>
@@ -12152,13 +12170,13 @@
         <v>8F</v>
       </c>
       <c r="K147" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L147" s="43" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M147" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N147" s="204"/>
       <c r="O147" s="193"/>
@@ -12199,25 +12217,25 @@
         <v>90</v>
       </c>
       <c r="K148" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L148" s="33" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M148" s="34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N148" s="204" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O148" s="206" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P148" s="206"/>
       <c r="Q148" s="207"/>
       <c r="R148" s="207"/>
       <c r="S148" s="194" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="149" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12253,13 +12271,13 @@
         <v>91</v>
       </c>
       <c r="K149" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L149" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M149" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N149" s="204"/>
       <c r="O149" s="207"/>
@@ -12301,13 +12319,13 @@
         <v>92</v>
       </c>
       <c r="K150" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L150" s="38" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M150" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N150" s="204"/>
       <c r="O150" s="207"/>
@@ -12349,13 +12367,13 @@
         <v>93</v>
       </c>
       <c r="K151" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L151" s="38" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M151" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N151" s="204"/>
       <c r="O151" s="207"/>
@@ -12397,13 +12415,13 @@
         <v>94</v>
       </c>
       <c r="K152" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L152" s="38" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M152" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N152" s="204"/>
       <c r="O152" s="207"/>
@@ -12445,13 +12463,13 @@
         <v>95</v>
       </c>
       <c r="K153" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L153" s="38" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M153" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N153" s="204"/>
       <c r="O153" s="207"/>
@@ -12493,13 +12511,13 @@
         <v>96</v>
       </c>
       <c r="K154" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L154" s="38" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M154" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N154" s="204"/>
       <c r="O154" s="207"/>
@@ -12541,13 +12559,13 @@
         <v>97</v>
       </c>
       <c r="K155" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L155" s="38" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M155" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N155" s="204"/>
       <c r="O155" s="207"/>
@@ -12589,13 +12607,13 @@
         <v>98</v>
       </c>
       <c r="K156" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L156" s="38" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M156" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N156" s="204"/>
       <c r="O156" s="207"/>
@@ -12637,13 +12655,13 @@
         <v>99</v>
       </c>
       <c r="K157" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L157" s="38" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M157" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N157" s="204"/>
       <c r="O157" s="207"/>
@@ -12685,13 +12703,13 @@
         <v>9A</v>
       </c>
       <c r="K158" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L158" s="38" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M158" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N158" s="204"/>
       <c r="O158" s="207"/>
@@ -12733,13 +12751,13 @@
         <v>9B</v>
       </c>
       <c r="K159" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L159" s="38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M159" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N159" s="204"/>
       <c r="O159" s="207"/>
@@ -12781,13 +12799,13 @@
         <v>9C</v>
       </c>
       <c r="K160" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L160" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M160" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N160" s="204"/>
       <c r="O160" s="207"/>
@@ -12829,13 +12847,13 @@
         <v>9D</v>
       </c>
       <c r="K161" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L161" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M161" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N161" s="204"/>
       <c r="O161" s="207"/>
@@ -12877,13 +12895,13 @@
         <v>9E</v>
       </c>
       <c r="K162" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L162" s="38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M162" s="39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N162" s="204"/>
       <c r="O162" s="207"/>
@@ -12925,13 +12943,13 @@
         <v>9F</v>
       </c>
       <c r="K163" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L163" s="43" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M163" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N163" s="204"/>
       <c r="O163" s="207"/>
@@ -12973,10 +12991,10 @@
         <v>A0</v>
       </c>
       <c r="K164" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M164" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N164"/>
     </row>
@@ -13013,10 +13031,10 @@
         <v>A1</v>
       </c>
       <c r="K165" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M165" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N165"/>
     </row>
@@ -13053,10 +13071,10 @@
         <v>A2</v>
       </c>
       <c r="K166" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M166" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N166"/>
     </row>
@@ -13093,10 +13111,10 @@
         <v>A3</v>
       </c>
       <c r="K167" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M167" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N167"/>
     </row>
@@ -13133,10 +13151,10 @@
         <v>A4</v>
       </c>
       <c r="K168" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M168" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N168"/>
     </row>
@@ -13173,10 +13191,10 @@
         <v>A5</v>
       </c>
       <c r="K169" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M169" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N169"/>
     </row>
@@ -13213,10 +13231,10 @@
         <v>A6</v>
       </c>
       <c r="K170" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M170" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N170"/>
     </row>
@@ -13253,10 +13271,10 @@
         <v>A7</v>
       </c>
       <c r="K171" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M171" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N171"/>
     </row>
@@ -13293,10 +13311,10 @@
         <v>A8</v>
       </c>
       <c r="K172" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M172" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N172" s="21"/>
     </row>
@@ -13333,10 +13351,10 @@
         <v>A9</v>
       </c>
       <c r="K173" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M173" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N173" s="21"/>
     </row>
@@ -13373,10 +13391,10 @@
         <v>AA</v>
       </c>
       <c r="K174" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M174" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N174" s="21"/>
     </row>
@@ -13413,10 +13431,10 @@
         <v>AB</v>
       </c>
       <c r="K175" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M175" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N175" s="21"/>
     </row>
@@ -13453,10 +13471,10 @@
         <v>AC</v>
       </c>
       <c r="K176" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M176" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N176" s="21"/>
     </row>
@@ -13493,10 +13511,10 @@
         <v>AD</v>
       </c>
       <c r="K177" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M177" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N177" s="21"/>
     </row>
@@ -13533,10 +13551,10 @@
         <v>AE</v>
       </c>
       <c r="K178" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M178" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N178" s="21"/>
     </row>
@@ -13573,10 +13591,10 @@
         <v>AF</v>
       </c>
       <c r="K179" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M179" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N179" s="21"/>
     </row>
@@ -13613,10 +13631,10 @@
         <v>B0</v>
       </c>
       <c r="K180" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M180" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N180"/>
     </row>
@@ -13653,10 +13671,10 @@
         <v>B1</v>
       </c>
       <c r="K181" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M181" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N181"/>
     </row>
@@ -13693,10 +13711,10 @@
         <v>B2</v>
       </c>
       <c r="K182" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M182" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N182"/>
     </row>
@@ -13733,10 +13751,10 @@
         <v>B3</v>
       </c>
       <c r="K183" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M183" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N183"/>
     </row>
@@ -13773,10 +13791,10 @@
         <v>B4</v>
       </c>
       <c r="K184" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M184" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N184"/>
     </row>
@@ -13813,10 +13831,10 @@
         <v>B5</v>
       </c>
       <c r="K185" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M185" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N185"/>
     </row>
@@ -13853,10 +13871,10 @@
         <v>B6</v>
       </c>
       <c r="K186" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M186" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N186"/>
     </row>
@@ -13893,10 +13911,10 @@
         <v>B7</v>
       </c>
       <c r="K187" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M187" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N187"/>
     </row>
@@ -13933,10 +13951,10 @@
         <v>B8</v>
       </c>
       <c r="K188" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M188" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N188"/>
     </row>
@@ -13973,10 +13991,10 @@
         <v>B9</v>
       </c>
       <c r="K189" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M189" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N189"/>
     </row>
@@ -14013,10 +14031,10 @@
         <v>BA</v>
       </c>
       <c r="K190" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M190" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N190"/>
     </row>
@@ -14053,10 +14071,10 @@
         <v>BB</v>
       </c>
       <c r="K191" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M191" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N191"/>
     </row>
@@ -14093,10 +14111,10 @@
         <v>BC</v>
       </c>
       <c r="K192" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M192" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N192"/>
     </row>
@@ -14133,10 +14151,10 @@
         <v>BD</v>
       </c>
       <c r="K193" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M193" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N193"/>
     </row>
@@ -14173,10 +14191,10 @@
         <v>BE</v>
       </c>
       <c r="K194" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M194" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N194"/>
     </row>
@@ -14213,10 +14231,10 @@
         <v>BF</v>
       </c>
       <c r="K195" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M195" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N195"/>
     </row>
@@ -14253,7 +14271,7 @@
         <v>C0</v>
       </c>
       <c r="K196" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N196"/>
     </row>
@@ -14290,7 +14308,7 @@
         <v>C1</v>
       </c>
       <c r="K197" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N197"/>
     </row>
@@ -14327,7 +14345,7 @@
         <v>C2</v>
       </c>
       <c r="K198" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N198"/>
     </row>
@@ -14364,7 +14382,7 @@
         <v>C3</v>
       </c>
       <c r="K199" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N199"/>
     </row>
@@ -14401,7 +14419,7 @@
         <v>C4</v>
       </c>
       <c r="K200" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N200"/>
     </row>
@@ -14438,7 +14456,7 @@
         <v>C5</v>
       </c>
       <c r="K201" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N201"/>
     </row>
@@ -14475,7 +14493,7 @@
         <v>C6</v>
       </c>
       <c r="K202" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N202"/>
     </row>
@@ -14512,7 +14530,7 @@
         <v>C7</v>
       </c>
       <c r="K203" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N203"/>
     </row>
@@ -14549,7 +14567,7 @@
         <v>C8</v>
       </c>
       <c r="K204" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N204"/>
     </row>
@@ -14586,7 +14604,7 @@
         <v>C9</v>
       </c>
       <c r="K205" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N205"/>
     </row>
@@ -14623,7 +14641,7 @@
         <v>CA</v>
       </c>
       <c r="K206" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N206"/>
     </row>
@@ -14660,7 +14678,7 @@
         <v>CB</v>
       </c>
       <c r="K207" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N207"/>
     </row>
@@ -14697,7 +14715,7 @@
         <v>CC</v>
       </c>
       <c r="K208" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N208"/>
     </row>
@@ -14734,7 +14752,7 @@
         <v>CD</v>
       </c>
       <c r="K209" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N209"/>
     </row>
@@ -14771,7 +14789,7 @@
         <v>CE</v>
       </c>
       <c r="K210" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N210"/>
     </row>
@@ -14808,7 +14826,7 @@
         <v>CF</v>
       </c>
       <c r="K211" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N211"/>
     </row>
@@ -14845,19 +14863,19 @@
         <v>D0</v>
       </c>
       <c r="K212" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L212" s="33" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M212" s="34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N212" s="204" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O212" s="167" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P212" s="167"/>
       <c r="Q212" s="193"/>
@@ -14896,13 +14914,13 @@
         <v>D1</v>
       </c>
       <c r="K213" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L213" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M213" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N213" s="204"/>
       <c r="O213" s="193"/>
@@ -14943,13 +14961,13 @@
         <v>D2</v>
       </c>
       <c r="K214" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L214" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M214" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N214" s="204"/>
       <c r="O214" s="193"/>
@@ -14990,13 +15008,13 @@
         <v>D3</v>
       </c>
       <c r="K215" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L215" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M215" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N215" s="204"/>
       <c r="O215" s="193"/>
@@ -15037,13 +15055,13 @@
         <v>D4</v>
       </c>
       <c r="K216" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L216" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M216" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N216" s="204"/>
       <c r="O216" s="193"/>
@@ -15084,13 +15102,13 @@
         <v>D5</v>
       </c>
       <c r="K217" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L217" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M217" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N217" s="204"/>
       <c r="O217" s="193"/>
@@ -15131,13 +15149,13 @@
         <v>D6</v>
       </c>
       <c r="K218" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L218" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M218" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N218" s="204"/>
       <c r="O218" s="193"/>
@@ -15178,13 +15196,13 @@
         <v>D7</v>
       </c>
       <c r="K219" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L219" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M219" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N219" s="204"/>
       <c r="O219" s="193"/>
@@ -15225,13 +15243,13 @@
         <v>D8</v>
       </c>
       <c r="K220" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L220" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M220" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N220" s="204"/>
       <c r="O220" s="193"/>
@@ -15272,13 +15290,13 @@
         <v>D9</v>
       </c>
       <c r="K221" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L221" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M221" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N221" s="204"/>
       <c r="O221" s="193"/>
@@ -15319,13 +15337,13 @@
         <v>DA</v>
       </c>
       <c r="K222" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L222" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M222" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N222" s="204"/>
       <c r="O222" s="193"/>
@@ -15366,13 +15384,13 @@
         <v>DB</v>
       </c>
       <c r="K223" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L223" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M223" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N223" s="204"/>
       <c r="O223" s="193"/>
@@ -15413,13 +15431,13 @@
         <v>DC</v>
       </c>
       <c r="K224" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L224" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M224" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N224" s="204"/>
       <c r="O224" s="193"/>
@@ -15460,13 +15478,13 @@
         <v>DD</v>
       </c>
       <c r="K225" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L225" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M225" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N225" s="204"/>
       <c r="O225" s="193"/>
@@ -15507,13 +15525,13 @@
         <v>DE</v>
       </c>
       <c r="K226" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L226" s="38" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M226" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N226" s="204"/>
       <c r="O226" s="193"/>
@@ -15554,13 +15572,13 @@
         <v>DF</v>
       </c>
       <c r="K227" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L227" s="43" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M227" s="44" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N227" s="204"/>
       <c r="O227" s="193"/>
@@ -15601,7 +15619,7 @@
         <v>E0</v>
       </c>
       <c r="K228" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N228"/>
     </row>
@@ -15638,7 +15656,7 @@
         <v>E1</v>
       </c>
       <c r="K229" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N229"/>
     </row>
@@ -15675,7 +15693,7 @@
         <v>E2</v>
       </c>
       <c r="K230" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N230"/>
     </row>
@@ -15712,7 +15730,7 @@
         <v>E3</v>
       </c>
       <c r="K231" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N231"/>
     </row>
@@ -15749,7 +15767,7 @@
         <v>E4</v>
       </c>
       <c r="K232" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N232"/>
     </row>
@@ -15786,7 +15804,7 @@
         <v>E5</v>
       </c>
       <c r="K233" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N233"/>
     </row>
@@ -15823,7 +15841,7 @@
         <v>E6</v>
       </c>
       <c r="K234" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N234"/>
     </row>
@@ -15860,7 +15878,7 @@
         <v>E7</v>
       </c>
       <c r="K235" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N235"/>
     </row>
@@ -15897,7 +15915,7 @@
         <v>E8</v>
       </c>
       <c r="K236" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N236"/>
     </row>
@@ -15934,7 +15952,7 @@
         <v>E9</v>
       </c>
       <c r="K237" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N237"/>
     </row>
@@ -15971,7 +15989,7 @@
         <v>EA</v>
       </c>
       <c r="K238" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N238"/>
     </row>
@@ -16008,7 +16026,7 @@
         <v>EB</v>
       </c>
       <c r="K239" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N239"/>
     </row>
@@ -16045,7 +16063,7 @@
         <v>EC</v>
       </c>
       <c r="K240" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N240"/>
     </row>
@@ -16082,7 +16100,7 @@
         <v>ED</v>
       </c>
       <c r="K241" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N241"/>
     </row>
@@ -16119,7 +16137,7 @@
         <v>EE</v>
       </c>
       <c r="K242" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N242"/>
     </row>
@@ -16156,7 +16174,7 @@
         <v>EF</v>
       </c>
       <c r="K243" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N243"/>
     </row>
@@ -16196,10 +16214,10 @@
       <c r="L244" s="33"/>
       <c r="M244" s="83"/>
       <c r="N244" s="204" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O244" s="167" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P244" s="167"/>
       <c r="Q244" s="193"/>
@@ -16812,10 +16830,10 @@
         <v>FF</v>
       </c>
       <c r="K259" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L259" s="43" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M259" s="85"/>
       <c r="N259" s="204"/>
@@ -16987,10 +17005,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>0</v>
@@ -17002,10 +17020,10 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>21</v>
@@ -17040,7 +17058,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>53</v>
@@ -17075,7 +17093,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>53</v>
@@ -17110,7 +17128,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>53</v>
@@ -17145,7 +17163,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>53</v>
@@ -17180,7 +17198,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>53</v>
@@ -17215,7 +17233,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>53</v>
@@ -17250,7 +17268,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>53</v>
@@ -17285,7 +17303,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>53</v>
@@ -17320,7 +17338,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>53</v>
@@ -17352,10 +17370,10 @@
         <v>70</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>51</v>
@@ -17387,10 +17405,10 @@
         <v>70</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>51</v>
@@ -17422,10 +17440,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>51</v>
@@ -17457,13 +17475,13 @@
         <v>48</v>
       </c>
       <c r="H14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="J14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="5">
         <v>0</v>
@@ -17492,10 +17510,10 @@
         <v>64</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>58</v>
@@ -17527,10 +17545,10 @@
         <v>60</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>58</v>
@@ -17562,10 +17580,10 @@
         <v>65</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>58</v>
@@ -17600,7 +17618,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>53</v>
@@ -17632,13 +17650,13 @@
         <v>61</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
@@ -17667,13 +17685,13 @@
         <v>62</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
@@ -17702,13 +17720,13 @@
         <v>63</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -17737,10 +17755,10 @@
         <v>50</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>57</v>
@@ -17772,10 +17790,10 @@
         <v>64</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9">
@@ -17805,10 +17823,10 @@
         <v>60</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9">
@@ -17838,10 +17856,10 @@
         <v>65</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9">
@@ -17874,7 +17892,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>53</v>
@@ -17906,10 +17924,10 @@
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>59</v>
@@ -17941,10 +17959,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>59</v>
@@ -17976,10 +17994,10 @@
         <v>49</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>59</v>
@@ -18011,10 +18029,10 @@
         <v>46</v>
       </c>
       <c r="H30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>66</v>
@@ -18046,10 +18064,10 @@
         <v>69</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8">
@@ -18079,10 +18097,10 @@
         <v>68</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8">
@@ -18112,10 +18130,10 @@
         <v>67</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8">
@@ -18152,10 +18170,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="89" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B38" s="89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -18163,23 +18181,23 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -18187,10 +18205,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -18198,10 +18216,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -18209,10 +18227,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
@@ -18220,7 +18238,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -18252,13 +18270,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="211" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B2" s="211"/>
       <c r="C2" s="211"/>
       <c r="D2" s="211"/>
       <c r="E2" s="166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="166"/>
       <c r="G2" s="166"/>
@@ -18266,36 +18284,36 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" t="s">
         <v>225</v>
-      </c>
-      <c r="F3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -18326,33 +18344,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>319</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>16</v>
@@ -18360,53 +18378,53 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -18414,13 +18432,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>16</v>
@@ -18431,13 +18449,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -18448,67 +18466,67 @@
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -18547,89 +18565,89 @@
   <sheetData>
     <row r="1" spans="1:24" s="138" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="138" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B1" s="138" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C1" s="138" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="138" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="139" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="139" t="s">
         <v>348</v>
-      </c>
-      <c r="D1" s="138" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" s="139" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="139" t="s">
-        <v>354</v>
-      </c>
-      <c r="G1" s="139" t="s">
-        <v>355</v>
       </c>
       <c r="H1" s="139"/>
       <c r="I1" s="138" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="139" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="138" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="138" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="139" t="s">
+      <c r="O1" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="L1" s="138" t="s">
+      <c r="Q1" s="138" t="s">
+        <v>365</v>
+      </c>
+      <c r="R1" s="138" t="s">
+        <v>366</v>
+      </c>
+      <c r="S1" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="M1" s="138" t="s">
+      <c r="T1" s="138" t="s">
         <v>368</v>
-      </c>
-      <c r="N1" s="138" t="s">
-        <v>369</v>
-      </c>
-      <c r="O1" s="138" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="138" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1" s="138" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1" s="138" t="s">
-        <v>373</v>
-      </c>
-      <c r="S1" s="138" t="s">
-        <v>374</v>
-      </c>
-      <c r="T1" s="138" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B2" s="126" t="e">
         <f>(A2/"3,6")</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D2" s="134" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F2" s="139"/>
       <c r="G2" s="139"/>
       <c r="H2" s="139"/>
       <c r="J2" s="139" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K2" s="138" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N2" s="150">
         <f>(L2*M2)</f>
@@ -25323,60 +25341,60 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E111" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F111" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="212" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B119" s="212"/>
       <c r="C119" s="136">
         <v>2.0699999999999998</v>
       </c>
       <c r="D119" s="128" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F119" s="128"/>
       <c r="I119" s="126"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="212" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B120" s="212"/>
       <c r="C120" s="145">
         <v>1000000</v>
       </c>
       <c r="D120" s="128" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F120" s="128"/>
       <c r="I120" s="126"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="212" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B121" s="212"/>
       <c r="C121" s="142">
         <v>8</v>
       </c>
       <c r="D121" s="128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F121" s="128"/>
       <c r="I121" s="126"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="212" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B122" s="212"/>
       <c r="C122" s="136">
@@ -25384,14 +25402,14 @@
         <v>125000</v>
       </c>
       <c r="D122" s="128" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F122" s="128"/>
       <c r="I122" s="126"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="212" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B123" s="212"/>
       <c r="C123" s="137">
@@ -25406,14 +25424,14 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="212" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B124" s="212"/>
       <c r="C124" s="132">
         <v>26</v>
       </c>
       <c r="D124" s="128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F124" s="128"/>
     </row>
